--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:03:27+00:00</t>
+    <t>2021-12-14T17:16:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:16:17+00:00</t>
+    <t>2021-12-14T17:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:36:58+00:00</t>
+    <t>2021-12-15T14:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T14:39:43+00:00</t>
+    <t>2021-12-15T15:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:05:59+00:00</t>
+    <t>2021-12-15T15:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-countryCodes</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.40.0.34.10.172 (OFFICIAL)</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:14:18+00:00</t>
+    <t>2022-01-20T10:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -233,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,29 +301,29 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -331,20 +337,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -366,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:16:45+00:00</t>
+    <t>2022-01-20T10:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:22:21+00:00</t>
+    <t>2022-01-20T10:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:27:00+00:00</t>
+    <t>2022-01-20T10:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:31:27+00:00</t>
+    <t>2022-01-20T10:44:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:44:52+00:00</t>
+    <t>2022-01-20T10:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:52:35+00:00</t>
+    <t>2022-01-20T10:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:59:42+00:00</t>
+    <t>2022-01-20T11:05:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:05:16+00:00</t>
+    <t>2022-01-20T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:15:25+00:00</t>
+    <t>2022-01-20T11:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:32:29+00:00</t>
+    <t>2022-01-20T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:45:34+00:00</t>
+    <t>2022-01-20T12:53:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:53:52+00:00</t>
+    <t>2022-01-20T12:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:57:34+00:00</t>
+    <t>2022-01-20T12:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-6-extend-cda-mapping/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:58:26+00:00</t>
+    <t>2022-01-20T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
